--- a/URI.xlsx
+++ b/URI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHRic\OneDrive\programmieren\angular\TinfProjekt\TinfProjektIoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F56824-C268-40B1-9393-4DF813C45EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9CA26B-2F8D-4624-8790-7664561AAAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21220" xr2:uid="{42269D87-41CD-402B-9456-B8EF9590AA09}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -50,9 +50,6 @@
     <t>res Parameter</t>
   </si>
   <si>
-    <t>GET Alle Sensornamen</t>
-  </si>
-  <si>
     <t>GET Einen Sensornamen</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>/api/machine/lastservice</t>
   </si>
   <si>
-    <t>/api/sensor/namelist</t>
-  </si>
-  <si>
     <t>/api/sensor/valuelistlast{amount}</t>
   </si>
   <si>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t>id: NUMBER, name: STRING</t>
+  </si>
+  <si>
+    <t>GET Sensor by ID</t>
+  </si>
+  <si>
+    <t>name: STRING, values: NUMBER, time: DATE</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85419DF-F8C6-499C-982B-218686674622}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,49 +559,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -609,49 +609,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -659,49 +659,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -709,40 +709,40 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -750,39 +750,39 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -832,52 +832,273 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>201</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+      <c r="I17">
+        <v>204</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
+      </c>
+      <c r="K17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/URI.xlsx
+++ b/URI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHRic\OneDrive\programmieren\angular\TinfProjekt\TinfProjektIoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9CA26B-2F8D-4624-8790-7664561AAAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0721806-DC5A-46B3-AECE-BE81B536EC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21220" xr2:uid="{42269D87-41CD-402B-9456-B8EF9590AA09}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -50,24 +50,12 @@
     <t>res Parameter</t>
   </si>
   <si>
-    <t>GET Einen Sensornamen</t>
-  </si>
-  <si>
     <t>GET Ein Sensorwert für ein Sensornamen</t>
   </si>
   <si>
-    <t>GET Alle Sensordaten für einen Sensornamen</t>
-  </si>
-  <si>
-    <t>GET Letzte X Daten für Alle Sensoren</t>
-  </si>
-  <si>
     <t>GET Letzte X Daten für einen Sensor</t>
   </si>
   <si>
-    <t>GEt Daten anhand eines Zeitraums für einen Sensor</t>
-  </si>
-  <si>
     <t>GET Datum der Installation für einen Sensornamen</t>
   </si>
   <si>
@@ -95,21 +83,9 @@
     <t>/api/machine/lastservice</t>
   </si>
   <si>
-    <t>/api/sensor/valuelistlast{amount}</t>
-  </si>
-  <si>
     <t>/api/sensor/{id}/lastvalue</t>
   </si>
   <si>
-    <t>/api/sensor/{id}/valuelist</t>
-  </si>
-  <si>
-    <t>/api/sensor/{id}/valuelistlast{amount}</t>
-  </si>
-  <si>
-    <t>/api/sensor/{id}/valuelisttime{time}</t>
-  </si>
-  <si>
     <t>/api/sensor/{id}/installation</t>
   </si>
   <si>
@@ -119,42 +95,12 @@
     <t>/api/user/{id}</t>
   </si>
   <si>
-    <t>/api/user/{id}/pwd</t>
-  </si>
-  <si>
-    <t>namelist: STRING</t>
-  </si>
-  <si>
-    <t>name: STRING</t>
-  </si>
-  <si>
     <t>lastvalue: NUMBER</t>
   </si>
   <si>
     <t>id: NUMBER</t>
   </si>
   <si>
-    <t>amount: NUMBER</t>
-  </si>
-  <si>
-    <t>id: NUMBER; amount: NUMBER</t>
-  </si>
-  <si>
-    <t>id: NUMBER, time: DATE</t>
-  </si>
-  <si>
-    <t>valuelist: STRING</t>
-  </si>
-  <si>
-    <t>valuelistlast: STRING</t>
-  </si>
-  <si>
-    <t>valuelistalllast: STRING</t>
-  </si>
-  <si>
-    <t>valuelisttime: STRING</t>
-  </si>
-  <si>
     <t>installation: DATE</t>
   </si>
   <si>
@@ -195,6 +141,45 @@
   </si>
   <si>
     <t>name: STRING, values: NUMBER, time: DATE</t>
+  </si>
+  <si>
+    <t>id, NUMBER, amount: NUMBER</t>
+  </si>
+  <si>
+    <t>GET Alle Sonsordaten für einen bestimmte Zeit</t>
+  </si>
+  <si>
+    <t>/api/sensor/{id}/valuelisttime/{timestart}&amp;{timeend}</t>
+  </si>
+  <si>
+    <t>/api/sensor/{id}/valuelistlast/{amount}</t>
+  </si>
+  <si>
+    <t>id: NUMBER, timestart: DATE, timeend: DATE</t>
+  </si>
+  <si>
+    <t>id: NUMBER, date: DATE</t>
+  </si>
+  <si>
+    <t>uname: STRING</t>
+  </si>
+  <si>
+    <t>id: NUMBER, found: BOOLEAN</t>
+  </si>
+  <si>
+    <t>/api/user/{id}/pwd/{pwd}</t>
+  </si>
+  <si>
+    <t>id: NUMBER, pwd: HASH</t>
+  </si>
+  <si>
+    <t>id: NUMBER, correct: BOOLEAN</t>
+  </si>
+  <si>
+    <t>id: NUMBER, name: STRING, valuelistime: STRING</t>
+  </si>
+  <si>
+    <t>id: NUMBEr, name: STRING, valuelistlast: STRING</t>
   </si>
 </sst>
 </file>
@@ -546,41 +531,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85419DF-F8C6-499C-982B-218686674622}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:K18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -588,517 +573,273 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>201</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>204</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="I6">
-        <v>200</v>
-      </c>
-      <c r="J6">
-        <v>200</v>
-      </c>
-      <c r="K6">
-        <v>200</v>
-      </c>
-      <c r="L6">
-        <v>201</v>
-      </c>
-      <c r="M6">
-        <v>200</v>
-      </c>
-      <c r="N6">
-        <v>204</v>
-      </c>
-      <c r="O6">
-        <v>200</v>
-      </c>
-      <c r="P6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-      <c r="D17">
-        <v>200</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-      <c r="G17">
-        <v>201</v>
-      </c>
-      <c r="H17">
-        <v>200</v>
-      </c>
-      <c r="I17">
-        <v>204</v>
-      </c>
-      <c r="J17">
-        <v>200</v>
-      </c>
-      <c r="K17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
-        <v>47</v>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/URI.xlsx
+++ b/URI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHRic\OneDrive\programmieren\angular\TinfProjekt\TinfProjektIoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0721806-DC5A-46B3-AECE-BE81B536EC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505632A5-1B31-47C3-954E-5124A95CB865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21220" xr2:uid="{42269D87-41CD-402B-9456-B8EF9590AA09}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>name: STRING, values: NUMBER, time: DATE</t>
   </si>
   <si>
-    <t>id, NUMBER, amount: NUMBER</t>
-  </si>
-  <si>
     <t>GET Alle Sonsordaten für einen bestimmte Zeit</t>
   </si>
   <si>
@@ -176,10 +173,13 @@
     <t>id: NUMBER, correct: BOOLEAN</t>
   </si>
   <si>
-    <t>id: NUMBER, name: STRING, valuelistime: STRING</t>
-  </si>
-  <si>
     <t>id: NUMBEr, name: STRING, valuelistlast: STRING</t>
+  </si>
+  <si>
+    <t>id, NUMBER, amount: NUMBER, unit: STRING</t>
+  </si>
+  <si>
+    <t>id: NUMBER, name: STRING, valuelistime: STRING, unit: STRING</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:K23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +641,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -658,16 +658,16 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -693,13 +693,13 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -784,17 +784,17 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -809,7 +809,7 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
@@ -819,17 +819,17 @@
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">

--- a/URI.xlsx
+++ b/URI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHRic\OneDrive\programmieren\angular\TinfProjekt\TinfProjektIoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9CA26B-2F8D-4624-8790-7664561AAAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505632A5-1B31-47C3-954E-5124A95CB865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21220" xr2:uid="{42269D87-41CD-402B-9456-B8EF9590AA09}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -50,24 +50,12 @@
     <t>res Parameter</t>
   </si>
   <si>
-    <t>GET Einen Sensornamen</t>
-  </si>
-  <si>
     <t>GET Ein Sensorwert für ein Sensornamen</t>
   </si>
   <si>
-    <t>GET Alle Sensordaten für einen Sensornamen</t>
-  </si>
-  <si>
-    <t>GET Letzte X Daten für Alle Sensoren</t>
-  </si>
-  <si>
     <t>GET Letzte X Daten für einen Sensor</t>
   </si>
   <si>
-    <t>GEt Daten anhand eines Zeitraums für einen Sensor</t>
-  </si>
-  <si>
     <t>GET Datum der Installation für einen Sensornamen</t>
   </si>
   <si>
@@ -95,21 +83,9 @@
     <t>/api/machine/lastservice</t>
   </si>
   <si>
-    <t>/api/sensor/valuelistlast{amount}</t>
-  </si>
-  <si>
     <t>/api/sensor/{id}/lastvalue</t>
   </si>
   <si>
-    <t>/api/sensor/{id}/valuelist</t>
-  </si>
-  <si>
-    <t>/api/sensor/{id}/valuelistlast{amount}</t>
-  </si>
-  <si>
-    <t>/api/sensor/{id}/valuelisttime{time}</t>
-  </si>
-  <si>
     <t>/api/sensor/{id}/installation</t>
   </si>
   <si>
@@ -119,42 +95,12 @@
     <t>/api/user/{id}</t>
   </si>
   <si>
-    <t>/api/user/{id}/pwd</t>
-  </si>
-  <si>
-    <t>namelist: STRING</t>
-  </si>
-  <si>
-    <t>name: STRING</t>
-  </si>
-  <si>
     <t>lastvalue: NUMBER</t>
   </si>
   <si>
     <t>id: NUMBER</t>
   </si>
   <si>
-    <t>amount: NUMBER</t>
-  </si>
-  <si>
-    <t>id: NUMBER; amount: NUMBER</t>
-  </si>
-  <si>
-    <t>id: NUMBER, time: DATE</t>
-  </si>
-  <si>
-    <t>valuelist: STRING</t>
-  </si>
-  <si>
-    <t>valuelistlast: STRING</t>
-  </si>
-  <si>
-    <t>valuelistalllast: STRING</t>
-  </si>
-  <si>
-    <t>valuelisttime: STRING</t>
-  </si>
-  <si>
     <t>installation: DATE</t>
   </si>
   <si>
@@ -195,6 +141,45 @@
   </si>
   <si>
     <t>name: STRING, values: NUMBER, time: DATE</t>
+  </si>
+  <si>
+    <t>GET Alle Sonsordaten für einen bestimmte Zeit</t>
+  </si>
+  <si>
+    <t>/api/sensor/{id}/valuelisttime/{timestart}&amp;{timeend}</t>
+  </si>
+  <si>
+    <t>/api/sensor/{id}/valuelistlast/{amount}</t>
+  </si>
+  <si>
+    <t>id: NUMBER, timestart: DATE, timeend: DATE</t>
+  </si>
+  <si>
+    <t>id: NUMBER, date: DATE</t>
+  </si>
+  <si>
+    <t>uname: STRING</t>
+  </si>
+  <si>
+    <t>id: NUMBER, found: BOOLEAN</t>
+  </si>
+  <si>
+    <t>/api/user/{id}/pwd/{pwd}</t>
+  </si>
+  <si>
+    <t>id: NUMBER, pwd: HASH</t>
+  </si>
+  <si>
+    <t>id: NUMBER, correct: BOOLEAN</t>
+  </si>
+  <si>
+    <t>id: NUMBEr, name: STRING, valuelistlast: STRING</t>
+  </si>
+  <si>
+    <t>id, NUMBER, amount: NUMBER, unit: STRING</t>
+  </si>
+  <si>
+    <t>id: NUMBER, name: STRING, valuelistime: STRING, unit: STRING</t>
   </si>
 </sst>
 </file>
@@ -546,41 +531,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85419DF-F8C6-499C-982B-218686674622}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:K18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -588,517 +573,273 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>201</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>204</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="I6">
-        <v>200</v>
-      </c>
-      <c r="J6">
-        <v>200</v>
-      </c>
-      <c r="K6">
-        <v>200</v>
-      </c>
-      <c r="L6">
-        <v>201</v>
-      </c>
-      <c r="M6">
-        <v>200</v>
-      </c>
-      <c r="N6">
-        <v>204</v>
-      </c>
-      <c r="O6">
-        <v>200</v>
-      </c>
-      <c r="P6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-      <c r="D17">
-        <v>200</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-      <c r="G17">
-        <v>201</v>
-      </c>
-      <c r="H17">
-        <v>200</v>
-      </c>
-      <c r="I17">
-        <v>204</v>
-      </c>
-      <c r="J17">
-        <v>200</v>
-      </c>
-      <c r="K17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
-        <v>47</v>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
